--- a/docs/assets/disciplinas/LOQ4061.xlsx
+++ b/docs/assets/disciplinas/LOQ4061.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-7,EQD-7,EQN-9</t>
+    <t>EB-7,EQD-6,EQN-8</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -139,11 +139,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4054 -  Fenômenos de Transporte III  (Requisito fraco)
+    <t xml:space="preserve">LOQ4083 -  Fenômenos de Transporte I  (Requisito fraco)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4085 -  Operações Unitárias I  (Requisito fraco)
+    <t xml:space="preserve">LOQ4084 -  Fenômenos de Transporte II  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOQ4061.xlsx
+++ b/docs/assets/disciplinas/LOQ4061.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -88,25 +88,25 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Perfis de temperaturas em barras de seção circular; 2) Transferência de calor por convecção; 3) Determinação do coeficiente de difusão em sistemas gás-líquido; 4) Trocadores de calor tubulares.</t>
+    <t>Perfis de temperaturas em barras de seção circular; 2) Transferência de calor por convecção; 3) Determinação do coeficiente de difusão em sistemas gás-líquido;</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>1) Temperature distribution in a bar with circular section; 2) Convective heat transfer; 3) Diffusion coefficient in gas-liquid systems; 4) Tubular heat exchangers.</t>
+    <t>1) Temperature distribution in a bar with circular section; 2) Convective heat transfer; 3) Diffusion coefficient in gas-liquid systems;</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Perfis de temperaturas em barras de seção circular: processos envolvendo condução e convecção em barras de vários materiais e diferentes dimensões. Aplicação do princípio das aletas; 2) Transferência de calor por convecção: medidas da variação de temperatura em corpos de várias geometrias e materiais diferentes e comparação com a análise concentrada para regime transiente; 3) Determinação do coeficiente de difusão em sistemas gás-líquido: avaliação da transferência de massa entre ar e líquidos empregando tubos horizontais (célula de Stefan) em regime pseudo-estacionário; 4) Determinação de coeficientes globais de troca de calor, balanços materiais e energéticos em trocadores tubulares do tipo casco e tubos.</t>
+    <t>1) Perfis de temperaturas em barras de seção circular: processos envolvendo condução e convecção em barras de vários materiais e diferentes dimensões. Aplicação do princípio das aletas; 2) Transferência de calor por convecção: medidas da variação de temperatura em corpos de várias geometrias e materiais diferentes e comparação com a análise concentrada para regime transiente; 3) Determinação do coeficiente de difusão em sistemas gás-líquido: avaliação da transferência de massa entre ar e líquidos empregando tubos horizontais (célula de Stefan) em regime pseudo-estacionário;</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>1) Temperature distribution in a bar with circular section: heat transfer by conduction and convection in bars of different diameters and materials;; 2) Convective heat transfer: measures temperature variation in bodies of different geometries and materials. Comparison between the experimental data with mathematical models based on the analysis concentrated to transient parameter settings; 3) Diffusion  coefficient in gas-liquid systems: analysis of mass transfer between air and liquids using horizontal pipes (Stefan cell) in pseudo-steady state; 4) Determination of overall heat transfer coefficients, material and energetic balances in shell-and-tube heat exchangers.</t>
+    <t>1) Temperature distribution in a bar with circular section: heat transfer by conduction and convection in bars of different diameters and materials;; 2) Convective heat transfer: measures temperature variation in bodies of different geometries and materials. Comparison between the experimental data with mathematical models based on the analysis concentrated to transient parameter settings; 3) Diffusion coefficient in gas-liquid systems: analysis of mass transfer between air and liquids using horizontal pipes (Stefan cell) in pseudo-steady state;</t>
   </si>
   <si>
     <t>Avaliação:</t>

--- a/docs/assets/disciplinas/LOQ4061.xlsx
+++ b/docs/assets/disciplinas/LOQ4061.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Consolidar conceitos na área de fenômenos de transporte de calor e massa, permitindo ao aluno:1: Entender e utilizar instrumentos de medida apropriados e/ou softwares para fazer medições de grandezas físicas. 2: Identificar os pontos fortes e as limitações dos modelos teóricos como preditores de comportamentos do mundo real. Isso pode incluir avaliar se uma teoria descreve adequadamente um evento físico e estabelecer ou validar uma relação entre dados medidos e os princípios físicos pertinentes. 3: Compreender uma abordagem experimental, incluindo equipamentos e procedimentos apropriados, implementar esses procedimentos e interpretar os dados resultantes. 4: Identificar resultados mal sucedidos devido a limitações em equipamentos, instrumentos, dados experimentais e sugerir soluções. 5: Trabalhar de forma eficaz em equipes, ciente de seu papel individual e responsabilidades conjuntas na execução de tarefas e cumprimento de prazos. 6: Aperfeiçoar a habilidade de escrever textos técnicos ao confeccionar relatórios técnicos.</t>
+    <t>6666306 - Daniela Helena Pelegrine Guimarães</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6666306 - Daniela Helena Pelegrine Guimarães</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Perfis de temperaturas em barras de seção circular; 2) Transferência de calor por convecção; 3) Determinação do coeficiente de difusão em sistemas gás-líquido;</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Perfis de temperaturas em barras de seção circular: processos envolvendo condução e convecção em barras de vários materiais e diferentes dimensões. Aplicação do princípio das aletas; 2) Transferência de calor por convecção: medidas da variação de temperatura em corpos de várias geometrias e materiais diferentes e comparação com a análise concentrada para regime transiente; 3) Determinação do coeficiente de difusão em sistemas gás-líquido: avaliação da transferência de massa entre ar e líquidos empregando tubos horizontais (célula de Stefan) em regime pseudo-estacionário;</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aplicação de provas e/ou relatórios com critérios de nota definidos pelo professor.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) INCROPERA, Frank P. Fundamentos de Transferência de Calor e de Massa. Rio de Janeiro: Livros Técnicos Científicos, 2008. 2) CREMASCO, Marco Aurélio. Fundamentos de Transferência de Massa. Campinas: UNICAMP, 1998</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,34 +622,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -672,85 +666,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4061.xlsx
+++ b/docs/assets/disciplinas/LOQ4061.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Consolidar conceitos na área de fenômenos de transporte de calor e massa, permitindo ao aluno:1: Entender e utilizar instrumentos de medida apropriados e/ou softwares para fazer medições de grandezas físicas. 2: Identificar os pontos fortes e as limitações dos modelos teóricos como preditores de comportamentos do mundo real. Isso pode incluir avaliar se uma teoria descreve adequadamente um evento físico e estabelecer ou validar uma relação entre dados medidos e os princípios físicos pertinentes. 3: Compreender uma abordagem experimental, incluindo equipamentos e procedimentos apropriados, implementar esses procedimentos e interpretar os dados resultantes. 4: Identificar resultados mal sucedidos devido a limitações em equipamentos, instrumentos, dados experimentais e sugerir soluções. 5: Trabalhar de forma eficaz em equipes, ciente de seu papel individual e responsabilidades conjuntas na execução de tarefas e cumprimento de prazos. 6: Aperfeiçoar a habilidade de escrever textos técnicos ao confeccionar relatórios técnicos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Consolidar conceitos na área de fenômenos de transporte de calor e massa, permitindo ao aluno:1: Entender e utilizar instrumentos de medida apropriados e/ou softwares para fazer medições de grandezas físicas. 2: Identificar os pontos fortes e as limitações dos modelos teóricos como preditores de comportamentos do mundo real. Isso pode incluir avaliar se uma teoria descreve adequadamente um evento físico e estabelecer ou validar uma relação entre dados medidos e os princípios físicos pertinentes. 3: Compreender uma abordagem experimental, incluindo equipamentos e procedimentos apropriados, implementar esses procedimentos e interpretar os dados resultantes. 4: Identificar resultados mal sucedidos devido a limitações em equipamentos, instrumentos, dados experimentais e sugerir soluções. 5: Trabalhar de forma eficaz em equipes, ciente de seu papel individual e responsabilidades conjuntas na execução de tarefas e cumprimento de prazos. 6: Aperfeiçoar a habilidade de escrever textos técnicos ao confeccionar relatórios técnicos.Consolidate concepts in the area of heat and mass transfer, allowing the student:1: Understand and use appropriate measuring instruments and/or software to measure physical quantities. 2: Identify the strengths and limitations of theoretical models as predictors of real-world behavior. This may include evaluating whether a theory adequately describes a physical event and establishing or validating a relationship between measured data and relevant physical principles. 3: Understand an experimental approach, including appropriate equipment and procedures, implement these procedures, and interpret the resulting data. 4: Identify unsuccessful results due to limitations in equipment, instruments, experimental data and suggesting solutions. 5: Work effectively on teams, aware of their individual role and joint accountability in performing tasks and meeting deadlines. 6: Improve the ability to write technical texts when making technical reports.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6666306 - Daniela Helena Pelegrine Guimarães</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Consolidar conceitos na área de fenômenos de transporte de calor e massa, permitindo ao aluno:1: Entender e utilizar instrumentos de medida apropriados e/ou softwares para fazer medições de grandezas físicas. 2: Identificar os pontos fortes e as limitações dos modelos teóricos como preditores de comportamentos do mundo real. Isso pode incluir avaliar se uma teoria descreve adequadamente um evento físico e estabelecer ou validar uma relação entre dados medidos e os princípios físicos pertinentes. 3: Compreender uma abordagem experimental, incluindo equipamentos e procedimentos apropriados, implementar esses procedimentos e interpretar os dados resultantes. 4: Identificar resultados mal sucedidos devido a limitações em equipamentos, instrumentos, dados experimentais e sugerir soluções. 5: Trabalhar de forma eficaz em equipes, ciente de seu papel individual e responsabilidades conjuntas na execução de tarefas e cumprimento de prazos. 6: Aperfeiçoar a habilidade de escrever textos técnicos ao confeccionar relatórios técnicos.Consolidate concepts in the area of heat and mass transfer, allowing the student:1: Understand and use appropriate measuring instruments and/or software to measure physical quantities. 2: Identify the strengths and limitations of theoretical models as predictors of real-world behavior. This may include evaluating whether a theory adequately describes a physical event and establishing or validating a relationship between measured data and relevant physical principles. 3: Understand an experimental approach, including appropriate equipment and procedures, implement these procedures, and interpret the resulting data. 4: Identify unsuccessful results due to limitations in equipment, instruments, experimental data and suggesting solutions. 5: Work effectively on teams, aware of their individual role and joint accountability in performing tasks and meeting deadlines. 6: Improve the ability to write technical texts when making technical reports.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Perfis de temperaturas em barras de seção circular; 2) Transferência de calor por convecção; 3) Determinação do coeficiente de difusão em sistemas gás-líquido;</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Perfis de temperaturas em barras de seção circular: processos envolvendo condução e convecção em barras de vários materiais e diferentes dimensões. Aplicação do princípio das aletas; 2) Transferência de calor por convecção: medidas da variação de temperatura em corpos de várias geometrias e materiais diferentes e comparação com a análise concentrada para regime transiente; 3) Determinação do coeficiente de difusão em sistemas gás-líquido: avaliação da transferência de massa entre ar e líquidos empregando tubos horizontais (célula de Stefan) em regime pseudo-estacionário;</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aplicação de provas e/ou relatórios com critérios de nota definidos pelo professor.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aplicação de provas e/ou relatórios com critérios de nota definidos pelo professor.</t>
+    <t>Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
+    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
+    <t>1) INCROPERA, Frank P. Fundamentos de Transferência de Calor e de Massa. Rio de Janeiro: Livros Técnicos Científicos, 2008. 2) CREMASCO, Marco Aurélio. Fundamentos de Transferência de Massa. Campinas: UNICAMP, 1998</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,37 +631,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -666,74 +672,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
